--- a/logs_export.xlsx
+++ b/logs_export.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45736.58333333334</v>
+        <v>45736.77083333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,11 +472,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45737.39583333334</v>
+        <v>45736.82291666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>leo booked Foreign 102 3-23 8:00-3-22 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45739.71758101852</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2542795@dundee.ac.uk booked A311 from 2025-03-24T08:00:00 to 2025-03-24T10:00:00</t>
         </is>
       </c>
     </row>

--- a/logs_export.xlsx
+++ b/logs_export.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,149 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45742.79592592592</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked Foreign104 from 2025-03-26T19:00:00 to 2025-03-26T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45742.79605324074</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked Foreign635 from 2025-03-27T19:00:00 to 2025-03-27T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45742.79612268518</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A410 from 2025-03-27T08:00:00 to 2025-03-27T10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45742.82518518518</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2542892@dundee.ac.uk booked Foreign108 from 2025-03-26T16:00:00 to 2025-03-26T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45742.825625</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2542892@dundee.ac.uk booked Foreign105 from 2025-03-28T08:00:00 to 2025-03-28T10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45742.86042824074</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-26T19:00:00 to 2025-03-26T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45742.86048611111</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A208 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45742.86128472222</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-29T16:00:00 to 2025-03-29T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45742.86131944445</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-29T14:00:00 to 2025-03-29T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45742.86144675926</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-29T19:00:00 to 2025-03-29T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45742.86266203703</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign101 from 2025-03-26T19:00:00 to 2025-03-26T21:00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_export.xlsx
+++ b/logs_export.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,565 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45743.6953125</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A208 from 2025-03-27T19:00:00 to 2025-03-27T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45743.69538194445</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A208 from 2025-03-27T16:00:00 to 2025-03-27T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45743.69550925926</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A208 from 2025-03-27T10:00:00 to 2025-03-27T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45743.69658564815</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A311 from 2025-03-27T19:00:00 to 2025-03-27T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45743.71362268519</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A311 from 2025-03-27T16:00:00 to 2025-03-27T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45743.71512731481</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A206 from 2025-03-30T14:00:00 to 2025-03-30T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45743.71541666667</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A206 from 2025-03-30T16:00:00 to 2025-03-30T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45743.71640046296</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2542693@dundee.ac.uk booked A207 from 2025-03-30T19:00:00 to 2025-03-30T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45744.42873842592</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A310 from 2025-03-28T14:00:00 to 2025-03-28T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45744.42896990741</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign105 from 2025-03-28T14:00:00 to 2025-03-28T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45744.42917824074</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign105 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45744.43362268519</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A206 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45744.43530092593</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A311 from 2025-03-28T10:00:00 to 2025-03-28T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45744.4411574074</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-28T10:00:00 to 2025-03-28T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45744.4416087963</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-28T14:00:00 to 2025-03-28T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45744.44208333334</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45744.44221064815</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign108 from 2025-03-28T19:00:00 to 2025-03-28T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45744.44231481481</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A208 from 2025-03-28T10:00:00 to 2025-03-28T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45744.44321759259</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign107 from 2025-03-28T19:00:00 to 2025-03-28T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45744.44436342592</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A208 from 2025-03-28T19:00:00 to 2025-03-28T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45744.46263888889</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign107 from 2025-03-28T10:00:00 to 2025-03-28T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45744.46303240741</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked Foreign107 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45744.47969907407</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A410 from 2025-03-28T14:00:00 to 2025-03-28T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45744.49092592593</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2542956@dundee.ac.uk booked Foreign105 from 2025-03-28T19:00:00 to 2025-03-28T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45744.50195601852</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2542956@dundee.ac.uk booked Foreign119 from 2025-03-29T14:00:00 to 2025-03-29T16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45744.5347337963</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2542956@dundee.ac.uk booked A310 from 2025-03-29T10:00:00 to 2025-03-29T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45744.53694444444</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2542956@dundee.ac.uk booked Foreign116 from 2025-03-29T10:00:00 to 2025-03-29T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45744.57356481482</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign119 | capacity=30, device=Whieboard, disabled=2 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45744.57515046297</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign101 | capacity=30, device=Whieboard, disabled=7 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45744.57553240741</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Admin modified A207 | capacity=60, device=Multimedia, disabled=2 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45744.57596064815</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign116 | capacity=30, device=Whieboard, disabled=3 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45744.57696759259</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign117 | capacity=30, device=Whieboard, disabled=1 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45744.57743055555</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign117 | capacity=30, device=Whieboard, disabled=1 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45744.58391203704</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign118 | capacity=30, device=Whieboard, disabled=1 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45744.58440972222</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign118 | capacity=30, device=Whieboard, disabled=3 slots, canceled=0 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45744.5891087963</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2542795@dundee.ac.uk booked A410 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45744.58917824074</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2542795@dundee.ac.uk booked A410 from 2025-03-28T10:00:00 to 2025-03-28T12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45744.60832175926</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2542721@dundee.ac.uk booked A310 from 2025-03-28T16:00:00 to 2025-03-28T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45744.63609953703</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>cjefferson001@dundee.ac.uk booked Foreign108 from 2025-03-28T08:00:00 to 2025-03-28T10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45744.63671296297</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cjefferson001@dundee.ac.uk booked A410 from 2025-03-31T19:00:00 to 2025-03-31T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45744.63747685185</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cjefferson001@dundee.ac.uk booked A310 from 2025-03-28T19:00:00 to 2025-03-28T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45744.63971064815</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign108 | capacity=30, device=Whieboard, disabled=48 slots, canceled=4 bookings</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45744.64006944445</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Admin modified Foreign108 | capacity=30, device=Whieboard, disabled=48 slots, canceled=48 bookings</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
